--- a/data/pca/factorExposure/factorExposure_2016-08-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.007529025319557638</v>
+        <v>0.01315136360600038</v>
       </c>
       <c r="C2">
-        <v>0.05441418950015348</v>
+        <v>0.04374393550920612</v>
       </c>
       <c r="D2">
-        <v>-0.03510471563304866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06531945471269103</v>
+      </c>
+      <c r="E2">
+        <v>-0.05146995138233503</v>
+      </c>
+      <c r="F2">
+        <v>0.08152717409784759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05922177275900396</v>
+        <v>0.03051793805525996</v>
       </c>
       <c r="C3">
-        <v>0.08989316774388265</v>
+        <v>0.08111230601152465</v>
       </c>
       <c r="D3">
-        <v>-0.08058673951945168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09230185135713104</v>
+      </c>
+      <c r="E3">
+        <v>-0.05950408147712194</v>
+      </c>
+      <c r="F3">
+        <v>0.01325023001353609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06192087046387017</v>
+        <v>0.05718944983076926</v>
       </c>
       <c r="C4">
-        <v>0.06131500105123243</v>
+        <v>0.06652045512505331</v>
       </c>
       <c r="D4">
-        <v>-0.02493561890722617</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05904380570391893</v>
+      </c>
+      <c r="E4">
+        <v>-0.04911596232867403</v>
+      </c>
+      <c r="F4">
+        <v>0.08852011260830024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03647825136770432</v>
+        <v>0.03415577526570208</v>
       </c>
       <c r="C6">
-        <v>0.03761087369811201</v>
+        <v>0.03402429758833658</v>
       </c>
       <c r="D6">
-        <v>-0.0313472389296628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06764307727839473</v>
+      </c>
+      <c r="E6">
+        <v>-0.05973336813778719</v>
+      </c>
+      <c r="F6">
+        <v>0.07203028583221313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01913808957162341</v>
+        <v>0.01913536785592383</v>
       </c>
       <c r="C7">
-        <v>0.0396578484327374</v>
+        <v>0.03797791282355247</v>
       </c>
       <c r="D7">
-        <v>0.004964997238378787</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03740222512006079</v>
+      </c>
+      <c r="E7">
+        <v>-0.03075475878893035</v>
+      </c>
+      <c r="F7">
+        <v>0.1080310695049023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.002042895083451311</v>
+        <v>0.003493492612954952</v>
       </c>
       <c r="C8">
-        <v>0.0235577317589091</v>
+        <v>0.02796481847238233</v>
       </c>
       <c r="D8">
-        <v>-0.0333237379556844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03614068956077918</v>
+      </c>
+      <c r="E8">
+        <v>-0.0408848658741632</v>
+      </c>
+      <c r="F8">
+        <v>0.05041140949248771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03278351294384154</v>
+        <v>0.03616571933374212</v>
       </c>
       <c r="C9">
-        <v>0.04433747867918407</v>
+        <v>0.05259545468666917</v>
       </c>
       <c r="D9">
-        <v>-0.01386298070086867</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04488444909929933</v>
+      </c>
+      <c r="E9">
+        <v>-0.04188491985524705</v>
+      </c>
+      <c r="F9">
+        <v>0.0920347818997402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07142701699606514</v>
+        <v>0.1001815399458763</v>
       </c>
       <c r="C10">
-        <v>-0.1938420796352953</v>
+        <v>-0.1938252167888465</v>
       </c>
       <c r="D10">
-        <v>-0.004601558504202723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0009173489507933384</v>
+      </c>
+      <c r="E10">
+        <v>-0.04654102863817106</v>
+      </c>
+      <c r="F10">
+        <v>0.04037733674037628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03792894321209326</v>
+        <v>0.03595277144469739</v>
       </c>
       <c r="C11">
-        <v>0.05522875915050049</v>
+        <v>0.05157363784795595</v>
       </c>
       <c r="D11">
-        <v>-0.007693410946319841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03422195139619524</v>
+      </c>
+      <c r="E11">
+        <v>-0.004923166337714187</v>
+      </c>
+      <c r="F11">
+        <v>0.06648698455052436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03461891939488734</v>
+        <v>0.03664841145313205</v>
       </c>
       <c r="C12">
-        <v>0.04680220497106656</v>
+        <v>0.04774135333555684</v>
       </c>
       <c r="D12">
-        <v>-0.002093545621339962</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02557974998376776</v>
+      </c>
+      <c r="E12">
+        <v>-0.01408003940000144</v>
+      </c>
+      <c r="F12">
+        <v>0.06950947858461606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01271436244838988</v>
+        <v>0.01215032222820086</v>
       </c>
       <c r="C13">
-        <v>0.04278258122255042</v>
+        <v>0.04177319574804892</v>
       </c>
       <c r="D13">
-        <v>-0.01773984796703905</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06252087405811946</v>
+      </c>
+      <c r="E13">
+        <v>-0.06124878737389589</v>
+      </c>
+      <c r="F13">
+        <v>0.1135686163276919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.006499420577471662</v>
+        <v>0.005194938118285311</v>
       </c>
       <c r="C14">
-        <v>0.03259593440485348</v>
+        <v>0.03091175001856091</v>
       </c>
       <c r="D14">
-        <v>0.01597456368348771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02736874512488342</v>
+      </c>
+      <c r="E14">
+        <v>-0.02602403976214034</v>
+      </c>
+      <c r="F14">
+        <v>0.09736794325564635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.00113541446558897</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003134438783099575</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.004407222023280098</v>
+      </c>
+      <c r="E15">
+        <v>6.347983589855955e-05</v>
+      </c>
+      <c r="F15">
+        <v>0.003022226763965464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03464953092475916</v>
+        <v>0.03341738439668907</v>
       </c>
       <c r="C16">
-        <v>0.0429634022012158</v>
+        <v>0.04582064210206968</v>
       </c>
       <c r="D16">
-        <v>-0.007119662524659245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02858877938599058</v>
+      </c>
+      <c r="E16">
+        <v>-0.01949132649023317</v>
+      </c>
+      <c r="F16">
+        <v>0.07048474077405513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02219620712409454</v>
+        <v>0.01621035772936375</v>
       </c>
       <c r="C19">
-        <v>0.06110622198578333</v>
+        <v>0.05044233739935786</v>
       </c>
       <c r="D19">
-        <v>-0.07107232300584022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09638058401724264</v>
+      </c>
+      <c r="E19">
+        <v>-0.07937274090643147</v>
+      </c>
+      <c r="F19">
+        <v>0.09175160621533011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01336873008999926</v>
+        <v>0.01315120592106888</v>
       </c>
       <c r="C20">
-        <v>0.04377886646288737</v>
+        <v>0.04104556495259141</v>
       </c>
       <c r="D20">
-        <v>-0.01797136492931472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04079510867996401</v>
+      </c>
+      <c r="E20">
+        <v>-0.05551969306223603</v>
+      </c>
+      <c r="F20">
+        <v>0.08935161100615467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.008935965523791218</v>
+        <v>0.008301126424934208</v>
       </c>
       <c r="C21">
-        <v>0.04771024684596035</v>
+        <v>0.04454206939733612</v>
       </c>
       <c r="D21">
-        <v>-0.03550103854022053</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06977559846755328</v>
+      </c>
+      <c r="E21">
+        <v>-0.07355251839348476</v>
+      </c>
+      <c r="F21">
+        <v>0.1345149670088611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001654247802139529</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02272057959305928</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03515528610671697</v>
+      </c>
+      <c r="E22">
+        <v>-0.01831730750624724</v>
+      </c>
+      <c r="F22">
+        <v>0.02200937799314243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001720930070756567</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02284491004257148</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03484746172649101</v>
+      </c>
+      <c r="E23">
+        <v>-0.01860485994879281</v>
+      </c>
+      <c r="F23">
+        <v>0.02188822987844103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02986132125342582</v>
+        <v>0.03295505845014044</v>
       </c>
       <c r="C24">
-        <v>0.04907712578593975</v>
+        <v>0.05376344284055665</v>
       </c>
       <c r="D24">
-        <v>-0.004039477775188334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02717907054104282</v>
+      </c>
+      <c r="E24">
+        <v>-0.01685293127179608</v>
+      </c>
+      <c r="F24">
+        <v>0.07925133534263626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0431689712704947</v>
+        <v>0.04268008538659407</v>
       </c>
       <c r="C25">
-        <v>0.05991368749446774</v>
+        <v>0.05792225911891679</v>
       </c>
       <c r="D25">
-        <v>0.006796264666062236</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02466483809746765</v>
+      </c>
+      <c r="E25">
+        <v>-0.01125968127416623</v>
+      </c>
+      <c r="F25">
+        <v>0.08068598422991187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01257941187585764</v>
+        <v>0.01364421597627286</v>
       </c>
       <c r="C26">
-        <v>0.01529473447127412</v>
+        <v>0.01658706738976695</v>
       </c>
       <c r="D26">
-        <v>-0.002147531589432285</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02659283394261665</v>
+      </c>
+      <c r="E26">
+        <v>-0.02853056750680846</v>
+      </c>
+      <c r="F26">
+        <v>0.07424740517517915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08574206368763924</v>
+        <v>0.1351220896444498</v>
       </c>
       <c r="C28">
-        <v>-0.226495163290763</v>
+        <v>-0.2432390229675427</v>
       </c>
       <c r="D28">
-        <v>-0.0007042668584330496</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01592669831183179</v>
+      </c>
+      <c r="E28">
+        <v>-0.04768972651447016</v>
+      </c>
+      <c r="F28">
+        <v>0.0566688859814707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.00795290818189192</v>
+        <v>0.006124773685607153</v>
       </c>
       <c r="C29">
-        <v>0.02550968803387231</v>
+        <v>0.0266621979399003</v>
       </c>
       <c r="D29">
-        <v>0.01707798711342647</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02198254739794406</v>
+      </c>
+      <c r="E29">
+        <v>-0.02791396674154371</v>
+      </c>
+      <c r="F29">
+        <v>0.08980328383717798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05125282115862576</v>
+        <v>0.04166761691660747</v>
       </c>
       <c r="C30">
-        <v>0.05790987721032648</v>
+        <v>0.06480916782563771</v>
       </c>
       <c r="D30">
-        <v>-0.05426073051953149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1081023745823847</v>
+      </c>
+      <c r="E30">
+        <v>-0.0399063093638258</v>
+      </c>
+      <c r="F30">
+        <v>0.1049550435277309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04968469973551472</v>
+        <v>0.0546018834221443</v>
       </c>
       <c r="C31">
-        <v>0.03132425020096097</v>
+        <v>0.0540535066612404</v>
       </c>
       <c r="D31">
-        <v>0.01660329767251036</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.008960073667244974</v>
+      </c>
+      <c r="E31">
+        <v>-0.04836536771306375</v>
+      </c>
+      <c r="F31">
+        <v>0.08256678745339065</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.008638566065394229</v>
+        <v>0.004311179308201915</v>
       </c>
       <c r="C32">
-        <v>0.04399068535233932</v>
+        <v>0.03363936998423132</v>
       </c>
       <c r="D32">
-        <v>-0.02699012374026045</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05019332335896773</v>
+      </c>
+      <c r="E32">
+        <v>-0.02317914884635512</v>
+      </c>
+      <c r="F32">
+        <v>0.07409633796153661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02648949506187463</v>
+        <v>0.02411967506872102</v>
       </c>
       <c r="C33">
-        <v>0.05892910204360436</v>
+        <v>0.05473917542855474</v>
       </c>
       <c r="D33">
-        <v>-0.03409284476655178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08102693039881977</v>
+      </c>
+      <c r="E33">
+        <v>-0.04936427315949909</v>
+      </c>
+      <c r="F33">
+        <v>0.1296985067297744</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04408188138322888</v>
+        <v>0.04064317724992679</v>
       </c>
       <c r="C34">
-        <v>0.06140690321064558</v>
+        <v>0.06425339257123833</v>
       </c>
       <c r="D34">
-        <v>0.00243493341424053</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03451126443799702</v>
+      </c>
+      <c r="E34">
+        <v>0.007576932148466395</v>
+      </c>
+      <c r="F34">
+        <v>0.07727392851089927</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008321766721980288</v>
+        <v>0.01301596728345543</v>
       </c>
       <c r="C36">
-        <v>0.01461392739945049</v>
+        <v>0.01236485929111154</v>
       </c>
       <c r="D36">
-        <v>-0.0009084195174371783</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02837888161821934</v>
+      </c>
+      <c r="E36">
+        <v>-0.03412188227940118</v>
+      </c>
+      <c r="F36">
+        <v>0.0823590708186773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0273868284521107</v>
+        <v>0.02409000815689389</v>
       </c>
       <c r="C38">
-        <v>0.02813487602731049</v>
+        <v>0.02485587626453136</v>
       </c>
       <c r="D38">
-        <v>0.001132039602442268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02598506408330586</v>
+      </c>
+      <c r="E38">
+        <v>-0.03293483997902139</v>
+      </c>
+      <c r="F38">
+        <v>0.06926910105938398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04068481590775242</v>
+        <v>0.03892065646054423</v>
       </c>
       <c r="C39">
-        <v>0.07175449228403741</v>
+        <v>0.06834745909452665</v>
       </c>
       <c r="D39">
-        <v>-0.02062939538147905</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0529300435241443</v>
+      </c>
+      <c r="E39">
+        <v>-0.0191443707301155</v>
+      </c>
+      <c r="F39">
+        <v>0.09175825966847891</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01532726294193333</v>
+        <v>0.01552322680710731</v>
       </c>
       <c r="C40">
-        <v>0.03575095125466449</v>
+        <v>0.04000855418483249</v>
       </c>
       <c r="D40">
-        <v>-0.03228650258420643</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03887208515616879</v>
+      </c>
+      <c r="E40">
+        <v>-0.069103320939156</v>
+      </c>
+      <c r="F40">
+        <v>0.08808288650439909</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.007222406197021657</v>
+        <v>0.01750422228754598</v>
       </c>
       <c r="C41">
-        <v>0.007349343612328969</v>
+        <v>0.00646243048995091</v>
       </c>
       <c r="D41">
-        <v>0.002065545376350661</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01662704743338025</v>
+      </c>
+      <c r="E41">
+        <v>-0.03757860024146547</v>
+      </c>
+      <c r="F41">
+        <v>0.0705386679969659</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.0008779926850637311</v>
+        <v>0.0006385170665075274</v>
       </c>
       <c r="C42">
-        <v>0.006176217220978471</v>
+        <v>0.003340538848689731</v>
       </c>
       <c r="D42">
-        <v>-0.006369190749891103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0005896200278511903</v>
+      </c>
+      <c r="E42">
+        <v>-0.005975876437751215</v>
+      </c>
+      <c r="F42">
+        <v>-0.006197234694852845</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0316375251161165</v>
+        <v>0.02864738399396178</v>
       </c>
       <c r="C43">
-        <v>0.02363632945531576</v>
+        <v>0.02148006201898172</v>
       </c>
       <c r="D43">
-        <v>-0.01214494639616068</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.040130128770377</v>
+      </c>
+      <c r="E43">
+        <v>-0.04302311090223309</v>
+      </c>
+      <c r="F43">
+        <v>0.08489388119834547</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0179968043616069</v>
+        <v>0.01381241901622907</v>
       </c>
       <c r="C44">
-        <v>0.05644199279851319</v>
+        <v>0.05252471849801254</v>
       </c>
       <c r="D44">
-        <v>-0.01410338374487967</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04011452475335864</v>
+      </c>
+      <c r="E44">
+        <v>-0.05535038142655104</v>
+      </c>
+      <c r="F44">
+        <v>0.09012273061421046</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.001020710333639971</v>
+        <v>0.0072237182313535</v>
       </c>
       <c r="C46">
-        <v>0.02348921986362947</v>
+        <v>0.02543228611036243</v>
       </c>
       <c r="D46">
-        <v>0.02115376526128792</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01327583433042088</v>
+      </c>
+      <c r="E46">
+        <v>-0.03374746774041529</v>
+      </c>
+      <c r="F46">
+        <v>0.1036804985268325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0807756194300981</v>
+        <v>0.0864399831773517</v>
       </c>
       <c r="C47">
-        <v>0.07033331183369669</v>
+        <v>0.0800471035542327</v>
       </c>
       <c r="D47">
-        <v>0.01332510101023959</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01658676652717459</v>
+      </c>
+      <c r="E47">
+        <v>-0.05415071507041647</v>
+      </c>
+      <c r="F47">
+        <v>0.07966588747888458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01669465519512958</v>
+        <v>0.01539861688291519</v>
       </c>
       <c r="C48">
-        <v>0.01211613159340258</v>
+        <v>0.01802666089750019</v>
       </c>
       <c r="D48">
-        <v>0.009250503926128268</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01830936346826185</v>
+      </c>
+      <c r="E48">
+        <v>-0.04460184209793531</v>
+      </c>
+      <c r="F48">
+        <v>0.09633537158079032</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08484147897689484</v>
+        <v>0.07089958510455149</v>
       </c>
       <c r="C50">
-        <v>0.06883047968471644</v>
+        <v>0.07136265443898764</v>
       </c>
       <c r="D50">
-        <v>0.02568252115128271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.005591179308218746</v>
+      </c>
+      <c r="E50">
+        <v>-0.05119407621994784</v>
+      </c>
+      <c r="F50">
+        <v>0.07416168702632372</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01364881038108567</v>
+        <v>0.01002770089997529</v>
       </c>
       <c r="C51">
-        <v>0.05121133285783797</v>
+        <v>0.03451324398463795</v>
       </c>
       <c r="D51">
-        <v>-0.01141361972452423</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04832326426387348</v>
+      </c>
+      <c r="E51">
+        <v>-0.02063935110551049</v>
+      </c>
+      <c r="F51">
+        <v>0.08433004037700319</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08295609833372117</v>
+        <v>0.09270638270770323</v>
       </c>
       <c r="C53">
-        <v>0.07133456450508537</v>
+        <v>0.08721467465126231</v>
       </c>
       <c r="D53">
-        <v>0.03060387703382895</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03854432370611503</v>
+      </c>
+      <c r="E53">
+        <v>-0.05227102718345031</v>
+      </c>
+      <c r="F53">
+        <v>0.09041648004069766</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03201710513903406</v>
+        <v>0.02775107560793238</v>
       </c>
       <c r="C54">
-        <v>0.02181710761169112</v>
+        <v>0.02701662112343834</v>
       </c>
       <c r="D54">
-        <v>-0.0002398761408616792</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03183643758194951</v>
+      </c>
+      <c r="E54">
+        <v>-0.04049313979788711</v>
+      </c>
+      <c r="F54">
+        <v>0.0964388396008705</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07346690429852373</v>
+        <v>0.08378616623439741</v>
       </c>
       <c r="C55">
-        <v>0.06314212778874388</v>
+        <v>0.0716991941893361</v>
       </c>
       <c r="D55">
-        <v>0.03468393912718558</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04568671780027782</v>
+      </c>
+      <c r="E55">
+        <v>-0.04334894473026425</v>
+      </c>
+      <c r="F55">
+        <v>0.06586308308290838</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1496650531446271</v>
+        <v>0.1451178625798374</v>
       </c>
       <c r="C56">
-        <v>0.09031927424147404</v>
+        <v>0.1058154556129155</v>
       </c>
       <c r="D56">
-        <v>0.03996321030537304</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0487642184481195</v>
+      </c>
+      <c r="E56">
+        <v>-0.04658098744856607</v>
+      </c>
+      <c r="F56">
+        <v>0.05074952206863026</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.0007604369619509958</v>
+        <v>9.580764751053144e-05</v>
       </c>
       <c r="C57">
-        <v>0.003584670517652025</v>
+        <v>0.001969624740280315</v>
       </c>
       <c r="D57">
-        <v>-0.01906456633163736</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01614451340822857</v>
+      </c>
+      <c r="E57">
+        <v>-0.007540618410395328</v>
+      </c>
+      <c r="F57">
+        <v>0.0109960637058304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07217784305752432</v>
+        <v>0.02772043698616343</v>
       </c>
       <c r="C58">
-        <v>0.02354210857893578</v>
+        <v>0.04087908711320392</v>
       </c>
       <c r="D58">
-        <v>-0.9097493635864369</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4871984651521383</v>
+      </c>
+      <c r="E58">
+        <v>-0.6926012822164795</v>
+      </c>
+      <c r="F58">
+        <v>-0.45223762054556</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1349841973830716</v>
+        <v>0.1468731749952668</v>
       </c>
       <c r="C59">
-        <v>-0.2041027053331509</v>
+        <v>-0.1865304156750107</v>
       </c>
       <c r="D59">
-        <v>-0.01700206045235195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03157905973577887</v>
+      </c>
+      <c r="E59">
+        <v>-0.02621402592400282</v>
+      </c>
+      <c r="F59">
+        <v>0.02238243850242927</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3105713276178532</v>
+        <v>0.2836506981837514</v>
       </c>
       <c r="C60">
-        <v>0.09295202903405793</v>
+        <v>0.0979516815174115</v>
       </c>
       <c r="D60">
-        <v>-0.02773218423104264</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2042405720635488</v>
+      </c>
+      <c r="E60">
+        <v>0.2736573406106059</v>
+      </c>
+      <c r="F60">
+        <v>-0.1159730049838372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0388890877315138</v>
+        <v>0.04003527037792508</v>
       </c>
       <c r="C61">
-        <v>0.0642541443666462</v>
+        <v>0.06259466918295681</v>
       </c>
       <c r="D61">
-        <v>-0.01135934154355409</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04619957518436229</v>
+      </c>
+      <c r="E61">
+        <v>-0.02222182396068908</v>
+      </c>
+      <c r="F61">
+        <v>0.08266737799713579</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01483393110607976</v>
+        <v>0.01490095469778904</v>
       </c>
       <c r="C63">
-        <v>0.03574099644429167</v>
+        <v>0.03274609302530763</v>
       </c>
       <c r="D63">
-        <v>0.002706924073692036</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02361914920457532</v>
+      </c>
+      <c r="E63">
+        <v>-0.03723348611377209</v>
+      </c>
+      <c r="F63">
+        <v>0.07754275103845804</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05257196559175481</v>
+        <v>0.05536669752209916</v>
       </c>
       <c r="C64">
-        <v>0.03761070109912445</v>
+        <v>0.05385808505728271</v>
       </c>
       <c r="D64">
-        <v>0.0102391729485191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006670133047841636</v>
+      </c>
+      <c r="E64">
+        <v>-0.02008562420283993</v>
+      </c>
+      <c r="F64">
+        <v>0.0857330555117037</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09582615582858962</v>
+        <v>0.06770265224585374</v>
       </c>
       <c r="C65">
-        <v>0.03581866526883599</v>
+        <v>0.0371156898589891</v>
       </c>
       <c r="D65">
-        <v>-0.03986700627327421</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08629952958733071</v>
+      </c>
+      <c r="E65">
+        <v>-0.03457894514570327</v>
+      </c>
+      <c r="F65">
+        <v>0.02083809248080757</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06127854075910504</v>
+        <v>0.05114459068759866</v>
       </c>
       <c r="C66">
-        <v>0.1033572410357781</v>
+        <v>0.0913401742104849</v>
       </c>
       <c r="D66">
-        <v>-0.0328711624322215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08034856883391699</v>
+      </c>
+      <c r="E66">
+        <v>-0.02158587840065468</v>
+      </c>
+      <c r="F66">
+        <v>0.09431585365840653</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.04956866432116904</v>
+        <v>0.04620129285674551</v>
       </c>
       <c r="C67">
-        <v>0.03311331461985741</v>
+        <v>0.03075313790519891</v>
       </c>
       <c r="D67">
-        <v>0.006879313829916692</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01196438432582706</v>
+      </c>
+      <c r="E67">
+        <v>-0.01590474854462935</v>
+      </c>
+      <c r="F67">
+        <v>0.0542208600338844</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1142982061806447</v>
+        <v>0.152023896103669</v>
       </c>
       <c r="C68">
-        <v>-0.2895966849278573</v>
+        <v>-0.2518726256053485</v>
       </c>
       <c r="D68">
-        <v>0.002434381877766978</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01803596312079921</v>
+      </c>
+      <c r="E68">
+        <v>-0.04261154784223026</v>
+      </c>
+      <c r="F68">
+        <v>0.01906070966821207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08450335325025761</v>
+        <v>0.0861922879531775</v>
       </c>
       <c r="C69">
-        <v>0.06799925822230193</v>
+        <v>0.08667839761067923</v>
       </c>
       <c r="D69">
-        <v>0.03811338645552817</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01181549343786645</v>
+      </c>
+      <c r="E69">
+        <v>-0.0303906512195509</v>
+      </c>
+      <c r="F69">
+        <v>0.09614924813865161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1161053234064726</v>
+        <v>0.1441112323971384</v>
       </c>
       <c r="C71">
-        <v>-0.2509696090032488</v>
+        <v>-0.2330525509711017</v>
       </c>
       <c r="D71">
-        <v>-0.02429770590390741</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01574900996072883</v>
+      </c>
+      <c r="E71">
+        <v>-0.0618501692081205</v>
+      </c>
+      <c r="F71">
+        <v>0.05785618778195054</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08494981291694996</v>
+        <v>0.09582428448001626</v>
       </c>
       <c r="C72">
-        <v>0.04965043025401551</v>
+        <v>0.05754687099085295</v>
       </c>
       <c r="D72">
-        <v>0.009197934984826007</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02074305480353169</v>
+      </c>
+      <c r="E72">
+        <v>-0.008774023708622224</v>
+      </c>
+      <c r="F72">
+        <v>0.08159896576114281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4471625821934186</v>
+        <v>0.3479346021567304</v>
       </c>
       <c r="C73">
-        <v>0.0642740759688894</v>
+        <v>0.0763253483629156</v>
       </c>
       <c r="D73">
-        <v>-0.1330398915006455</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4340185254042376</v>
+      </c>
+      <c r="E73">
+        <v>0.4816996303156874</v>
+      </c>
+      <c r="F73">
+        <v>-0.2928849426077168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1120070501960636</v>
+        <v>0.1101944319172371</v>
       </c>
       <c r="C74">
-        <v>0.1066801863463688</v>
+        <v>0.1009524377896802</v>
       </c>
       <c r="D74">
-        <v>0.01346107159617945</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02914375974570166</v>
+      </c>
+      <c r="E74">
+        <v>-0.06133656266036445</v>
+      </c>
+      <c r="F74">
+        <v>0.05672874227093563</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2514846013232757</v>
+        <v>0.2559904212505839</v>
       </c>
       <c r="C75">
-        <v>0.1125362587192715</v>
+        <v>0.1369569878833884</v>
       </c>
       <c r="D75">
-        <v>0.06111872242365103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.128056299212896</v>
+      </c>
+      <c r="E75">
+        <v>-0.0737835399704692</v>
+      </c>
+      <c r="F75">
+        <v>0.01616308313814586</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.113135892092977</v>
+        <v>0.1277629180851093</v>
       </c>
       <c r="C76">
-        <v>0.08986703696326805</v>
+        <v>0.1028091070439485</v>
       </c>
       <c r="D76">
-        <v>0.03283273575583208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05761510868563971</v>
+      </c>
+      <c r="E76">
+        <v>-0.06636141932144661</v>
+      </c>
+      <c r="F76">
+        <v>0.07159982783295193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07651804389062067</v>
+        <v>0.06141001415846337</v>
       </c>
       <c r="C77">
-        <v>0.05698258202888579</v>
+        <v>0.06952347686621635</v>
       </c>
       <c r="D77">
-        <v>-0.05205933290107822</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06415638149337863</v>
+      </c>
+      <c r="E77">
+        <v>-0.06604040262790933</v>
+      </c>
+      <c r="F77">
+        <v>0.1167520007414995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04605493344086341</v>
+        <v>0.0435663854040085</v>
       </c>
       <c r="C78">
-        <v>0.04446337665669788</v>
+        <v>0.05522665201331966</v>
       </c>
       <c r="D78">
-        <v>-0.01778891310669745</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07122606104494711</v>
+      </c>
+      <c r="E78">
+        <v>-0.0214497893029595</v>
+      </c>
+      <c r="F78">
+        <v>0.1040690932733073</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0247590320099878</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03808335006470753</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05949065806854962</v>
+      </c>
+      <c r="E79">
+        <v>-0.05162577836064802</v>
+      </c>
+      <c r="F79">
+        <v>0.04224160285327073</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04627397658051098</v>
+        <v>0.03417131369269239</v>
       </c>
       <c r="C80">
-        <v>0.05799053897444049</v>
+        <v>0.05561615036493583</v>
       </c>
       <c r="D80">
-        <v>-0.02904465703248809</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04687592974774855</v>
+      </c>
+      <c r="E80">
+        <v>-0.009443603591687897</v>
+      </c>
+      <c r="F80">
+        <v>0.03637982564969689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1420257225285176</v>
+        <v>0.1398426281931021</v>
       </c>
       <c r="C81">
-        <v>0.07148565254656365</v>
+        <v>0.09737986794208101</v>
       </c>
       <c r="D81">
-        <v>0.03366452862997357</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09519785641153493</v>
+      </c>
+      <c r="E81">
+        <v>-0.0817576176390645</v>
+      </c>
+      <c r="F81">
+        <v>0.02167164367713917</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1390612873028494</v>
+        <v>0.1987485411503185</v>
       </c>
       <c r="C82">
-        <v>0.05578381399893496</v>
+        <v>0.1376485215221064</v>
       </c>
       <c r="D82">
-        <v>0.1215991313563599</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2266113002410504</v>
+      </c>
+      <c r="E82">
+        <v>-0.01955619768082011</v>
+      </c>
+      <c r="F82">
+        <v>0.08529492546392642</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02938010661535189</v>
+        <v>0.02736061459761808</v>
       </c>
       <c r="C83">
-        <v>0.0235863054004576</v>
+        <v>0.04032736008368008</v>
       </c>
       <c r="D83">
-        <v>-0.0231270401295318</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03518107875254751</v>
+      </c>
+      <c r="E83">
+        <v>-0.009238223569952712</v>
+      </c>
+      <c r="F83">
+        <v>0.04993962540946978</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2257395917188061</v>
+        <v>0.2041652066016758</v>
       </c>
       <c r="C85">
-        <v>0.1036994320225455</v>
+        <v>0.1218881711378835</v>
       </c>
       <c r="D85">
-        <v>0.09981923624865047</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1020337025348894</v>
+      </c>
+      <c r="E85">
+        <v>-0.004151206216797165</v>
+      </c>
+      <c r="F85">
+        <v>-0.01735537385079023</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.008407362725975143</v>
+        <v>0.01184858296008467</v>
       </c>
       <c r="C86">
-        <v>0.02954684961808599</v>
+        <v>0.03020230273103941</v>
       </c>
       <c r="D86">
-        <v>-0.03529738773901907</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07087541843517574</v>
+      </c>
+      <c r="E86">
+        <v>-0.04197670255044526</v>
+      </c>
+      <c r="F86">
+        <v>0.1368968319620031</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01759474031759397</v>
+        <v>0.02086796401215094</v>
       </c>
       <c r="C87">
-        <v>0.01738637039369318</v>
+        <v>0.02187800558606114</v>
       </c>
       <c r="D87">
-        <v>-0.09211373407009188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09256919693820505</v>
+      </c>
+      <c r="E87">
+        <v>-0.08725258387746769</v>
+      </c>
+      <c r="F87">
+        <v>0.09491826793983194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1040418241201665</v>
+        <v>0.09087056611252151</v>
       </c>
       <c r="C88">
-        <v>0.06707246706468649</v>
+        <v>0.06355774057481678</v>
       </c>
       <c r="D88">
-        <v>0.02111531750382376</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01152452446143866</v>
+      </c>
+      <c r="E88">
+        <v>-0.03467402132048458</v>
+      </c>
+      <c r="F88">
+        <v>0.07339517057295104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1736166814547949</v>
+        <v>0.2242404206486927</v>
       </c>
       <c r="C89">
-        <v>-0.3773944668381447</v>
+        <v>-0.3785754464795726</v>
       </c>
       <c r="D89">
-        <v>0.02503729609238371</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01442047636163239</v>
+      </c>
+      <c r="E89">
+        <v>-0.04033540059662252</v>
+      </c>
+      <c r="F89">
+        <v>0.09697462481624448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1713323216773643</v>
+        <v>0.2028675210440465</v>
       </c>
       <c r="C90">
-        <v>-0.3495444706769756</v>
+        <v>-0.3148338557775064</v>
       </c>
       <c r="D90">
-        <v>0.01395259755565609</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01307022384329293</v>
+      </c>
+      <c r="E90">
+        <v>-0.06750381265312523</v>
+      </c>
+      <c r="F90">
+        <v>0.04663726970806863</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1933224514958462</v>
+        <v>0.186263851381687</v>
       </c>
       <c r="C91">
-        <v>0.1099547390500773</v>
+        <v>0.1400563419890115</v>
       </c>
       <c r="D91">
-        <v>0.06112701501846952</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1051167730940951</v>
+      </c>
+      <c r="E91">
+        <v>-0.06425404639950534</v>
+      </c>
+      <c r="F91">
+        <v>0.03707058826913665</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1663070486130117</v>
+        <v>0.1821273115423104</v>
       </c>
       <c r="C92">
-        <v>-0.292443268204139</v>
+        <v>-0.279623332205405</v>
       </c>
       <c r="D92">
-        <v>0.01330750185729929</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.002578727976299224</v>
+      </c>
+      <c r="E92">
+        <v>-0.06977008965451251</v>
+      </c>
+      <c r="F92">
+        <v>0.08215319259540449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1977176130284035</v>
+        <v>0.2268183194014212</v>
       </c>
       <c r="C93">
-        <v>-0.3394721467748131</v>
+        <v>-0.3185148129332631</v>
       </c>
       <c r="D93">
-        <v>0.008147824225793923</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0001946344234825236</v>
+      </c>
+      <c r="E93">
+        <v>-0.05200650873374024</v>
+      </c>
+      <c r="F93">
+        <v>0.04439657542403213</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3149622676388971</v>
+        <v>0.3413869228764839</v>
       </c>
       <c r="C94">
-        <v>0.1591303138267744</v>
+        <v>0.1895865200266241</v>
       </c>
       <c r="D94">
-        <v>0.2389485939093647</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4753399817788796</v>
+      </c>
+      <c r="E94">
+        <v>-0.1507216825967674</v>
+      </c>
+      <c r="F94">
+        <v>-0.4446452534079693</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09491735728303563</v>
+        <v>0.08459338581178093</v>
       </c>
       <c r="C95">
-        <v>0.08280479208715218</v>
+        <v>0.06823012758433629</v>
       </c>
       <c r="D95">
-        <v>-0.06733735394427826</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1580987279065997</v>
+      </c>
+      <c r="E95">
+        <v>0.1232845382431177</v>
+      </c>
+      <c r="F95">
+        <v>0.1713156829840612</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1963968127341273</v>
+        <v>0.1885995845647024</v>
       </c>
       <c r="C98">
-        <v>0.01740978052414904</v>
+        <v>0.04114103509381654</v>
       </c>
       <c r="D98">
-        <v>-0.06505640543842185</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1768327389489399</v>
+      </c>
+      <c r="E98">
+        <v>0.1563759936107928</v>
+      </c>
+      <c r="F98">
+        <v>-0.04417240770301328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0078574228662029</v>
+        <v>0.006139655152847884</v>
       </c>
       <c r="C101">
-        <v>0.02550575203210112</v>
+        <v>0.02643010609719016</v>
       </c>
       <c r="D101">
-        <v>0.01729357053595892</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0214266868506854</v>
+      </c>
+      <c r="E101">
+        <v>-0.02853521308810901</v>
+      </c>
+      <c r="F101">
+        <v>0.08954571570877533</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1243667595799036</v>
+        <v>0.1240254206412227</v>
       </c>
       <c r="C102">
-        <v>0.07211856474441641</v>
+        <v>0.09969188755697991</v>
       </c>
       <c r="D102">
-        <v>0.03386252673036855</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05075650798013776</v>
+      </c>
+      <c r="E102">
+        <v>0.007683420937068375</v>
+      </c>
+      <c r="F102">
+        <v>0.03989144884365527</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
